--- a/download/notas.xlsx
+++ b/download/notas.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyects\app-notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FC0E27-FA5B-4E80-9E19-AF1762334983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DB2E85-1F5F-47D8-BFBB-2BAC63A29E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{74889F44-3E6E-48AF-9F86-98BB5D2C7E6B}"/>
+    <workbookView xWindow="2724" yWindow="624" windowWidth="17280" windowHeight="9420" xr2:uid="{DE8AD933-552D-4B6E-A93C-70195FD900B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="NOMBRE">Sheet1!$B$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,39 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>AGUILAR TRIVEÑO JORGE DILAN</t>
-  </si>
-  <si>
-    <t>CLAROS GUTIERREZ VICTOR HUGO</t>
-  </si>
-  <si>
-    <t>CABRERA GOMEZ SEBASTIAN MATEO</t>
-  </si>
-  <si>
-    <t>COCA ALVAREZ MAURICIO GERSON</t>
-  </si>
-  <si>
-    <t>DAVALOS ARAMAYO SERGIO ALEJANDRO</t>
-  </si>
-  <si>
-    <t>FLORES MAMANI ALEX</t>
-  </si>
-  <si>
-    <t>GARCIA CHAMBILLA LUIS MARIO</t>
-  </si>
-  <si>
-    <t>GUTIERREZ CHAMBI PABLO ALFREDO</t>
-  </si>
-  <si>
-    <t>GUZMAN HUCHANI PABLO MAURICIO</t>
-  </si>
-  <si>
-    <t>GUZMAN RAMOS JAIRO MATIAS</t>
-  </si>
-  <si>
-    <t>N•</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Número</t>
   </si>
   <si>
     <t>NOMBRE COMPLETO</t>
@@ -78,13 +51,61 @@
   </si>
   <si>
     <t>1º Parcial</t>
+  </si>
+  <si>
+    <t>ANDRÉS MORALES CASTRO</t>
+  </si>
+  <si>
+    <t>MARÍA FERNÁNDEZ LÓPEZ</t>
+  </si>
+  <si>
+    <t>CARLOS EDUARDO PÉREZ</t>
+  </si>
+  <si>
+    <t>VERÓNICA GARCÍA MENDOZA</t>
+  </si>
+  <si>
+    <t>JORGE ALBERTO RAMÍREZ</t>
+  </si>
+  <si>
+    <t>PATRICIA DELGADO TORRES</t>
+  </si>
+  <si>
+    <t>LUIS MIGUEL VÁSQUEZ</t>
+  </si>
+  <si>
+    <t>ELENA MARTÍNEZ RIVERA</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER GÓMEZ</t>
+  </si>
+  <si>
+    <t>CLAUDIA BEATRIZ SALAZAR</t>
+  </si>
+  <si>
+    <t>ISABEL CRISTINA ORTIZ</t>
+  </si>
+  <si>
+    <t>FERNANDO HERRERA LUNA</t>
+  </si>
+  <si>
+    <t>GABRIELA SUÁREZ MONTES</t>
+  </si>
+  <si>
+    <t>RICARDO EMILIO SANTOS</t>
+  </si>
+  <si>
+    <t>DANIELA ALEJANDRA RODRÍGUEZ</t>
+  </si>
+  <si>
+    <t>ROBERTO ANTONIO FUENTES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,20 +115,25 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFF8F8FF"/>
-      <name val="Aptos Narrow"/>
+      <sz val="7"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF1D1D1B"/>
-      <name val="Aptos Display"/>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF284775"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,18 +142,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1D1D1B"/>
+        <fgColor rgb="FFF7F6F3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8F8FF"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -136,17 +168,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -154,25 +200,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -182,11 +249,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF1D1D1B"/>
-      <color rgb="FFF8F8FF"/>
-      <color rgb="FFAF2D23"/>
-      <color rgb="FFBE1414"/>
-      <color rgb="FFCC0605"/>
+      <color rgb="FF333333"/>
+      <color rgb="FF284775"/>
+      <color rgb="FFF7F6F3"/>
     </mruColors>
   </colors>
   <extLst>
@@ -201,7 +266,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -516,195 +581,260 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8120F909-FEE2-48C9-A5CF-5434D4DDDBF9}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52F65FF-CCD8-4897-97AC-B9227BC41E62}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" zoomScaleSheetLayoutView="103" zoomScalePageLayoutView="142" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="63.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>70</v>
+      </c>
+      <c r="D7" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C8" s="1">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C9" s="3">
+        <v>84</v>
+      </c>
+      <c r="D9" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C10" s="1">
+        <v>97</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <f>IF(B2="","",ROW()-1)</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>85</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <f t="shared" ref="A3:A10" si="0">IF(B3="","",ROW()-1)</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="C11" s="3">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1">
         <v>90</v>
       </c>
-      <c r="D3" s="5">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>80</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="D12" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3">
+        <v>86</v>
+      </c>
+      <c r="D15" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
         <v>75</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>82</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>78</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4">
-        <v>91</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4">
-        <v>88</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4">
-        <v>70</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <f>IF(B11="","",ROW()-1)</f>
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4">
-        <v>60</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="D16" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8">
+        <v>84</v>
+      </c>
+      <c r="D17" s="8">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;G</oddHeader>
-  </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
-  <picture r:id="rId3"/>
 </worksheet>
 </file>